--- a/data/output/FV2310_FV2304/QUOTES/15003.xlsx
+++ b/data/output/FV2310_FV2304/QUOTES/15003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3578" uniqueCount="305">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="305">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1091,6 +1091,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U212" totalsRowShown="0">
+  <autoFilter ref="A1:U212"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1380,7 +1410,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10265,5 +10298,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/QUOTES/15003.xlsx
+++ b/data/output/FV2310_FV2304/QUOTES/15003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4425" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4417" uniqueCount="511">
   <si>
     <t>#</t>
   </si>
@@ -6794,44 +6794,42 @@
       <c r="V95" s="2"/>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2" t="s">
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="K96" s="2"/>
-      <c r="L96" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="M96" s="2" t="s">
+      <c r="K96" s="6"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N96" s="2" t="s">
+      <c r="N96" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2" t="s">
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="V96" s="2"/>
+      <c r="V96" s="6"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="2" t="s">
@@ -6996,44 +6994,42 @@
       </c>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2" t="s">
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="K100" s="2"/>
-      <c r="L100" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="M100" s="2" t="s">
+      <c r="K100" s="6"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N100" s="2" t="s">
+      <c r="N100" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2" t="s">
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="V100" s="2"/>
+      <c r="V100" s="6"/>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="2" t="s">
@@ -9328,44 +9324,42 @@
       <c r="V155" s="11"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2" t="s">
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="K156" s="2"/>
-      <c r="L156" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="M156" s="2" t="s">
+      <c r="K156" s="6"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N156" s="2" t="s">
+      <c r="N156" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2" t="s">
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+      <c r="U156" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="V156" s="2"/>
+      <c r="V156" s="6"/>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="2" t="s">
@@ -9530,44 +9524,42 @@
       </c>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2" t="s">
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="K160" s="2"/>
-      <c r="L160" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="M160" s="2" t="s">
+      <c r="K160" s="6"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N160" s="2" t="s">
+      <c r="N160" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" s="2"/>
-      <c r="R160" s="2"/>
-      <c r="S160" s="2"/>
-      <c r="T160" s="2"/>
-      <c r="U160" s="2" t="s">
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6"/>
+      <c r="T160" s="6"/>
+      <c r="U160" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="V160" s="2"/>
+      <c r="V160" s="6"/>
     </row>
     <row r="161" spans="1:22">
       <c r="A161" s="2" t="s">
